--- a/项目进度/环渤海项目安排进度(2月版).xlsx
+++ b/项目进度/环渤海项目安排进度(2月版).xlsx
@@ -4,43 +4,17 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="18315" windowHeight="8055" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="18315" windowHeight="8055"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
-  <si>
-    <t>Google Application Development</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mockup Confirm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iPhone Application Development</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Data API</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iPhone Application Launch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Google APP Launch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>Owner</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,19 +24,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Owner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>备用：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>赵阳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>郑超</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -320,18 +286,12 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -369,68 +329,35 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -443,265 +370,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>96838</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>98426</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="直接箭头连接符 2"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2133600" y="277813"/>
-          <a:ext cx="285750" cy="1588"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100" cmpd="sng">
-          <a:headEnd type="none" w="lg" len="med"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>173038</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="直接箭头连接符 7"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2486025" y="533400"/>
-          <a:ext cx="2038350" cy="1588"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100" cmpd="sng">
-          <a:headEnd type="none" w="lg" len="med"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>87313</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="直接箭头连接符 9"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2495550" y="809625"/>
-          <a:ext cx="962025" cy="1588"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100" cmpd="sng">
-          <a:headEnd type="none" w="lg" len="med"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>285751</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="流程图: 摘录 13"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4286250" y="971550"/>
-          <a:ext cx="219075" cy="219076"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartExtract">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>201613</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="直接箭头连接符 15"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3924300" y="1466850"/>
-          <a:ext cx="1647825" cy="1588"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100" cmpd="sng">
-          <a:headEnd type="none" w="lg" len="med"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -718,13 +386,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="26" name="直接箭头连接符 25"/>
+        <xdr:cNvPr id="2" name="直接箭头连接符 1"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1790700" y="276225"/>
-          <a:ext cx="866775" cy="7937"/>
+          <a:ext cx="1428750" cy="7937"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -766,7 +434,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="流程图: 摘录 34"/>
+        <xdr:cNvPr id="3" name="流程图: 摘录 2"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -828,7 +496,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="36" name="直接箭头连接符 35"/>
+        <xdr:cNvPr id="4" name="直接箭头连接符 3"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -876,7 +544,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="37" name="直接箭头连接符 36"/>
+        <xdr:cNvPr id="5" name="直接箭头连接符 4"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -924,7 +592,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="45" name="直接箭头连接符 44"/>
+        <xdr:cNvPr id="6" name="直接箭头连接符 5"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1020,7 +688,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="直接箭头连接符 8"/>
+        <xdr:cNvPr id="8" name="直接箭头连接符 7"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1068,7 +736,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="直接箭头连接符 9"/>
+        <xdr:cNvPr id="9" name="直接箭头连接符 8"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1116,7 +784,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="直接箭头连接符 11"/>
+        <xdr:cNvPr id="10" name="直接箭头连接符 9"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1164,7 +832,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="直接箭头连接符 19"/>
+        <xdr:cNvPr id="11" name="直接箭头连接符 10"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1212,7 +880,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="直接箭头连接符 20"/>
+        <xdr:cNvPr id="12" name="直接箭头连接符 11"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1260,7 +928,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="29" name="直接箭头连接符 28"/>
+        <xdr:cNvPr id="13" name="直接箭头连接符 12"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1581,652 +1249,379 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:X8"/>
+  <dimension ref="B2:S17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L11" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="18.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.375" style="2" customWidth="1"/>
-    <col min="4" max="11" width="4.625" style="4" customWidth="1"/>
-    <col min="12" max="24" width="4.625" style="1" customWidth="1"/>
-    <col min="25" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="27.625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="5.625" style="4" customWidth="1"/>
+    <col min="4" max="19" width="5.625" style="3" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:24" s="3" customFormat="1">
-      <c r="B2" s="11" t="s">
+    <row r="2" spans="2:19">
+      <c r="B2" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>40229</v>
+      </c>
+      <c r="E4" s="2">
+        <v>40230</v>
+      </c>
+      <c r="F4" s="2">
+        <v>40231</v>
+      </c>
+      <c r="G4" s="2">
+        <v>40232</v>
+      </c>
+      <c r="H4" s="2">
+        <v>40233</v>
+      </c>
+      <c r="I4" s="2">
+        <v>40234</v>
+      </c>
+      <c r="J4" s="2">
+        <v>40235</v>
+      </c>
+      <c r="K4" s="2">
+        <v>40236</v>
+      </c>
+      <c r="L4" s="2">
+        <v>40237</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+    </row>
+    <row r="5" spans="2:19" s="5" customFormat="1" ht="27.75" customHeight="1">
+      <c r="B5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+    </row>
+    <row r="6" spans="2:19" s="5" customFormat="1" ht="28.5" customHeight="1">
+      <c r="B6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+    </row>
+    <row r="7" spans="2:19" s="5" customFormat="1" ht="29.25" customHeight="1">
+      <c r="B7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+    </row>
+    <row r="8" spans="2:19" s="5" customFormat="1" ht="27.75" customHeight="1">
+      <c r="B8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+    </row>
+    <row r="9" spans="2:19" s="5" customFormat="1" ht="31.5" customHeight="1">
+      <c r="B9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+    </row>
+    <row r="10" spans="2:19" s="5" customFormat="1" ht="29.25" customHeight="1">
+      <c r="B10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="5">
-        <v>40217</v>
-      </c>
-      <c r="E2" s="5">
-        <v>40218</v>
-      </c>
-      <c r="F2" s="5">
-        <v>40219</v>
-      </c>
-      <c r="G2" s="5">
-        <v>40220</v>
-      </c>
-      <c r="H2" s="5">
-        <v>40221</v>
-      </c>
-      <c r="I2" s="5">
-        <v>40222</v>
-      </c>
-      <c r="J2" s="5">
-        <v>40223</v>
-      </c>
-      <c r="K2" s="5">
-        <v>40224</v>
-      </c>
-      <c r="L2" s="5">
-        <v>40225</v>
-      </c>
-      <c r="M2" s="5">
-        <v>40226</v>
-      </c>
-      <c r="N2" s="5">
-        <v>40227</v>
-      </c>
-      <c r="O2" s="5">
-        <v>40228</v>
-      </c>
-      <c r="P2" s="5">
-        <v>40229</v>
-      </c>
-      <c r="Q2" s="5">
-        <v>40230</v>
-      </c>
-      <c r="R2" s="5">
-        <v>40231</v>
-      </c>
-      <c r="S2" s="5">
-        <v>40232</v>
-      </c>
-      <c r="T2" s="5">
-        <v>40233</v>
-      </c>
-      <c r="U2" s="5">
-        <v>40234</v>
-      </c>
-      <c r="V2" s="5">
-        <v>40235</v>
-      </c>
-      <c r="W2" s="5">
-        <v>40236</v>
-      </c>
-      <c r="X2" s="5">
-        <v>40237</v>
-      </c>
+      <c r="C10" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
     </row>
-    <row r="3" spans="2:24" s="3" customFormat="1">
-      <c r="B3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
+    <row r="11" spans="2:19" s="5" customFormat="1" ht="27.75" customHeight="1">
+      <c r="B11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
     </row>
-    <row r="4" spans="2:24" ht="25.5">
-      <c r="B4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
+    <row r="12" spans="2:19" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B12" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
     </row>
-    <row r="5" spans="2:24">
-      <c r="B5" s="8" t="s">
+    <row r="13" spans="2:19" s="5" customFormat="1" ht="36" customHeight="1">
+      <c r="B13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
     </row>
-    <row r="6" spans="2:24" ht="25.5" customHeight="1">
-      <c r="B6" s="8" t="s">
+    <row r="14" spans="2:19" s="5" customFormat="1" ht="29.25" customHeight="1">
+      <c r="B14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+    </row>
+    <row r="15" spans="2:19" s="5" customFormat="1" ht="37.5" customHeight="1">
+      <c r="B15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="10"/>
-      <c r="X6" s="10"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
     </row>
-    <row r="7" spans="2:24" ht="25.5">
-      <c r="B7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="10"/>
+    <row r="16" spans="2:19" s="5" customFormat="1" ht="27.75" customHeight="1">
+      <c r="B16" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
     </row>
-    <row r="8" spans="2:24" ht="24.75" customHeight="1">
-      <c r="B8" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="10"/>
-      <c r="X8" s="10"/>
+    <row r="17" spans="2:19" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B17" s="8"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:S17"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1:AB1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="9" style="14"/>
-    <col min="2" max="2" width="27.625" style="20" customWidth="1"/>
-    <col min="3" max="3" width="5.625" style="15" customWidth="1"/>
-    <col min="4" max="19" width="5.625" style="14" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="14"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:19">
-      <c r="B2" s="18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="2:19" s="16" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B4" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="13">
-        <v>40229</v>
-      </c>
-      <c r="E4" s="13">
-        <v>40230</v>
-      </c>
-      <c r="F4" s="13">
-        <v>40231</v>
-      </c>
-      <c r="G4" s="13">
-        <v>40232</v>
-      </c>
-      <c r="H4" s="13">
-        <v>40233</v>
-      </c>
-      <c r="I4" s="13">
-        <v>40234</v>
-      </c>
-      <c r="J4" s="13">
-        <v>40235</v>
-      </c>
-      <c r="K4" s="13">
-        <v>40236</v>
-      </c>
-      <c r="L4" s="13">
-        <v>40237</v>
-      </c>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-    </row>
-    <row r="5" spans="2:19" s="16" customFormat="1" ht="27.75" customHeight="1">
-      <c r="B5" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-    </row>
-    <row r="6" spans="2:19" s="16" customFormat="1" ht="28.5" customHeight="1">
-      <c r="B6" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-    </row>
-    <row r="7" spans="2:19" s="16" customFormat="1" ht="29.25" customHeight="1">
-      <c r="B7" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-    </row>
-    <row r="8" spans="2:19" s="16" customFormat="1" ht="27.75" customHeight="1">
-      <c r="B8" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
-    </row>
-    <row r="9" spans="2:19" s="16" customFormat="1" ht="31.5" customHeight="1">
-      <c r="B9" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
-    </row>
-    <row r="10" spans="2:19" s="16" customFormat="1" ht="29.25" customHeight="1">
-      <c r="B10" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-    </row>
-    <row r="11" spans="2:19" s="16" customFormat="1" ht="27.75" customHeight="1">
-      <c r="B11" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
-    </row>
-    <row r="12" spans="2:19" s="16" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B12" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
-    </row>
-    <row r="13" spans="2:19" s="16" customFormat="1" ht="36" customHeight="1">
-      <c r="B13" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
-    </row>
-    <row r="14" spans="2:19" s="16" customFormat="1" ht="29.25" customHeight="1">
-      <c r="B14" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
-    </row>
-    <row r="15" spans="2:19" s="16" customFormat="1" ht="37.5" customHeight="1">
-      <c r="B15" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="13"/>
-    </row>
-    <row r="16" spans="2:19" s="16" customFormat="1" ht="27.75" customHeight="1">
-      <c r="B16" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="13"/>
-    </row>
-    <row r="17" spans="2:19" s="16" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="19"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="13"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/项目进度/环渤海项目安排进度(2月版).xlsx
+++ b/项目进度/环渤海项目安排进度(2月版).xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="18315" windowHeight="8055"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="18315" windowHeight="8055" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
+    <sheet name="工作安排-初始" sheetId="4" r:id="rId1"/>
+    <sheet name="工作安排—Modify" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
   <si>
     <t>Owner</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -232,6 +233,162 @@
         <charset val="134"/>
       </rPr>
       <t>消息管理模块，并补充其他一些琐碎功能</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Jin.H - 1: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>完善查询操作</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基本查询、高级查询</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，彼此之间用选型卡进行区分，整合之前已有的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>displayTag</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分页标签。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Zh.C - 2: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>完善用户管理模块，参与将之前修改的结果进行整合</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Jin.H - 2: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>完善用户管理模块，参与将之前修改的结果进行整合</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Zh.C - 1/2: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>完善验证框架、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ajax</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>唯一性验证、日志、异常处理；完成如上工作后和其他人员一起完成整合。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Zh.Y - 1: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>同美工人员沟通，完善相关画面；数据库修改后，将用户模块现有操作基本调通</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -935,6 +1092,409 @@
         <a:xfrm flipV="1">
           <a:off x="5781675" y="3209925"/>
           <a:ext cx="847725" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cmpd="sng">
+          <a:headEnd type="none" w="lg" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1104900</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>103187</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="直接箭头连接符 1"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1790700" y="276225"/>
+          <a:ext cx="1428750" cy="7937"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cmpd="sng">
+          <a:headEnd type="none" w="lg" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="流程图: 摘录 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1209675" y="76200"/>
+          <a:ext cx="219075" cy="285751"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartExtract">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>781050</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>971550</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>87313</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="直接箭头连接符 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1466850" y="266700"/>
+          <a:ext cx="190500" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cmpd="sng">
+          <a:headEnd type="none" w="lg" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直接箭头连接符 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4933950" y="990600"/>
+          <a:ext cx="895350" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cmpd="sng">
+          <a:headEnd type="none" w="lg" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直接箭头连接符 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4933950" y="1457325"/>
+          <a:ext cx="457200" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cmpd="sng">
+          <a:headEnd type="none" w="lg" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>257176</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直接箭头连接符 10"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4953000" y="1924050"/>
+          <a:ext cx="438150" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cmpd="sng">
+          <a:headEnd type="none" w="lg" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="直接箭头连接符 19"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5372100" y="2438400"/>
+          <a:ext cx="457200" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cmpd="sng">
+          <a:headEnd type="none" w="lg" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="直接箭头连接符 20"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5353050" y="2924175"/>
+          <a:ext cx="457200" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1251,8 +1811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:S17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L11" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1624,4 +2184,352 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:S17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="27.625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="5.625" style="4" customWidth="1"/>
+    <col min="4" max="19" width="5.625" style="3" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:19">
+      <c r="B2" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>40229</v>
+      </c>
+      <c r="E4" s="2">
+        <v>40230</v>
+      </c>
+      <c r="F4" s="2">
+        <v>40231</v>
+      </c>
+      <c r="G4" s="2">
+        <v>40232</v>
+      </c>
+      <c r="H4" s="2">
+        <v>40233</v>
+      </c>
+      <c r="I4" s="2">
+        <v>40234</v>
+      </c>
+      <c r="J4" s="2">
+        <v>40235</v>
+      </c>
+      <c r="K4" s="2">
+        <v>40236</v>
+      </c>
+      <c r="L4" s="2">
+        <v>40237</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+    </row>
+    <row r="5" spans="2:19" s="5" customFormat="1" ht="40.5" customHeight="1">
+      <c r="B5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+    </row>
+    <row r="6" spans="2:19" s="5" customFormat="1" ht="42" customHeight="1">
+      <c r="B6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+    </row>
+    <row r="7" spans="2:19" s="5" customFormat="1" ht="41.25" customHeight="1">
+      <c r="B7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+    </row>
+    <row r="8" spans="2:19" s="5" customFormat="1" ht="34.5" customHeight="1">
+      <c r="B8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+    </row>
+    <row r="9" spans="2:19" s="5" customFormat="1" ht="36.75" customHeight="1">
+      <c r="B9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+    </row>
+    <row r="10" spans="2:19" s="5" customFormat="1" ht="29.25" customHeight="1">
+      <c r="B10" s="8"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+    </row>
+    <row r="11" spans="2:19" s="5" customFormat="1" ht="27.75" customHeight="1">
+      <c r="B11" s="8"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+    </row>
+    <row r="12" spans="2:19" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B12" s="8"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+    </row>
+    <row r="13" spans="2:19" s="5" customFormat="1" ht="36" customHeight="1">
+      <c r="B13" s="8"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+    </row>
+    <row r="14" spans="2:19" s="5" customFormat="1" ht="29.25" customHeight="1">
+      <c r="B14" s="8"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+    </row>
+    <row r="15" spans="2:19" s="5" customFormat="1" ht="37.5" customHeight="1">
+      <c r="B15" s="8"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+    </row>
+    <row r="16" spans="2:19" s="5" customFormat="1" ht="27.75" customHeight="1">
+      <c r="B16" s="8"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+    </row>
+    <row r="17" spans="2:19" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B17" s="8"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>